--- a/data/season_04-05.xlsx
+++ b/data/season_04-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10bd0caeed7dcdf8/Desktop/Football SA/Sports-Analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0293BBAF-E0A7-4AF2-B0B0-6554BC8C9CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0293BBAF-E0A7-4AF2-B0B0-6554BC8C9CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7270EAE4-BF6C-4C60-8D7E-B40BCFB2AAC5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62CFA081-2066-43DF-9A23-7599EEEE2641}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>jersey_number</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Francisco Javier Sánchez Broto</t>
-  </si>
-  <si>
-    <t>Season 04/05</t>
   </si>
   <si>
     <t>Overal Rating</t>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25193E2A-05DB-4C66-B89A-6D157DC55DE1}">
-  <dimension ref="C2:O28"/>
+  <dimension ref="C4:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,11 +541,6 @@
     <col min="14" max="15" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>0</v>
@@ -566,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
